--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\py_ut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD31F-96D7-44CD-9F76-72C1AFAD80DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CEE2F4-D4AC-4703-ADFA-3090109355AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{3CB2CEC4-DFC4-460F-B217-DADF3E259B2E}"/>
+    <workbookView xWindow="-103" yWindow="343" windowWidth="19543" windowHeight="12651" xr2:uid="{3CB2CEC4-DFC4-460F-B217-DADF3E259B2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Plan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Traceability</t>
   </si>
@@ -57,13 +58,100 @@
   </si>
   <si>
     <t>Judgment</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Test method</t>
+  </si>
+  <si>
+    <t>Step 1:</t>
+  </si>
+  <si>
+    <t>- Seek position</t>
+  </si>
+  <si>
+    <t>Step 2:</t>
+  </si>
+  <si>
+    <t>- Iter row data</t>
+  </si>
+  <si>
+    <t>Frist row -&gt;</t>
+  </si>
+  <si>
+    <t>Last row -&gt;</t>
+  </si>
+  <si>
+    <t>First col</t>
+  </si>
+  <si>
+    <t>Last col</t>
+  </si>
+  <si>
+    <t>Step 3:</t>
+  </si>
+  <si>
+    <t>- Seek num of test case</t>
+  </si>
+  <si>
+    <t>Start -&gt;</t>
+  </si>
+  <si>
+    <t>End -&gt;</t>
+  </si>
+  <si>
+    <t>=&gt; Frist, Last row for iter.</t>
+  </si>
+  <si>
+    <t>=&gt; 2 Test case.</t>
+  </si>
+  <si>
+    <t>- Iter with First, Last row (result of Step 2)</t>
+  </si>
+  <si>
+    <t>- Iter with First, last col (result of Step 1)</t>
+  </si>
+  <si>
+    <t>Seek</t>
+  </si>
+  <si>
+    <t>Step 4:</t>
+  </si>
+  <si>
+    <t>- Data analyze</t>
+  </si>
+  <si>
+    <t>- T.B.D</t>
+  </si>
+  <si>
+    <t>('#')</t>
+  </si>
+  <si>
+    <t>('Input element')</t>
+  </si>
+  <si>
+    <t>('Output element')</t>
+  </si>
+  <si>
+    <t>('Judgment')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +165,34 @@
       <name val="Monoid"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monoid"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -94,13 +200,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,52 +636,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AD37F-BEDA-428D-AF5A-A27A63852309}">
-  <dimension ref="B3:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5772B99D-277F-4193-9379-0F443557905C}">
+  <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AD37F-BEDA-428D-AF5A-A27A63852309}">
+  <dimension ref="B2:O34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="18.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="6.23046875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" style="13"/>
+    <col min="6" max="6" width="11.84375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.4609375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="25.84375" style="13" customWidth="1"/>
+    <col min="9" max="14" width="8.69140625" style="13"/>
+    <col min="15" max="15" width="11.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.69140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C10" s="14"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C11" s="14"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F6:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\py_ut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quangla\repo\pcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CEE2F4-D4AC-4703-ADFA-3090109355AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="343" windowWidth="19543" windowHeight="12651" xr2:uid="{3CB2CEC4-DFC4-460F-B217-DADF3E259B2E}"/>
+    <workbookView xWindow="-105" yWindow="1245" windowWidth="19545" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Plan" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>Traceability</t>
   </si>
@@ -145,13 +144,49 @@
   </si>
   <si>
     <t>('Judgment')</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Test technique</t>
+  </si>
+  <si>
+    <t>Requirement base test</t>
+  </si>
+  <si>
+    <t>Interface test</t>
+  </si>
+  <si>
+    <t>Fault injection test</t>
+  </si>
+  <si>
+    <t>Error guessing test</t>
+  </si>
+  <si>
+    <t>return value coverage</t>
+  </si>
+  <si>
+    <t>Memory destruction</t>
+  </si>
+  <si>
+    <t>Memory alignment</t>
+  </si>
+  <si>
+    <t>Detail:</t>
+  </si>
+  <si>
+    <t>- Walking through all worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Find </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,19 +328,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -313,16 +337,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,496 +717,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5772B99D-277F-4193-9379-0F443557905C}">
-  <dimension ref="B2:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="22"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:18" ht="15" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4" t="s">
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="26"/>
+      <c r="C8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D4"/>
+  <mergeCells count="14">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
     <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AD37F-BEDA-428D-AF5A-A27A63852309}">
-  <dimension ref="B2:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.23046875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69140625" style="13"/>
-    <col min="6" max="6" width="11.84375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.4609375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.84375" style="13" customWidth="1"/>
-    <col min="9" max="14" width="8.69140625" style="13"/>
-    <col min="15" max="15" width="11.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69140625" style="13"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="2"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="2" customWidth="1"/>
+    <col min="9" max="14" width="8.7109375" style="2"/>
+    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E2" s="13" t="s">
+    <row r="2" spans="2:17">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="14" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E5" s="15" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D6" s="16" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="D6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="18" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="21" t="s">
+    <row r="7" spans="2:17">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C10" s="14"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C11" s="14"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:17">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E15" s="16" t="s">
+    <row r="15" spans="2:17">
+      <c r="E15" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D19" s="14" t="s">
+    <row r="16" spans="2:17">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D20" s="14" t="s">
+    <row r="20" spans="2:15">
+      <c r="D20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I21" s="13" t="s">
+    <row r="21" spans="2:15">
+      <c r="I21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:15">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:15">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:15">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="2:15">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="18" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H30" s="13" t="s">
+    <row r="26" spans="2:15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B32" s="12" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quangla\repo\pcl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\py_ut\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5638FE-2092-474D-ACE9-53FE7120ACC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1245" windowWidth="19545" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="22780" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,14 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -185,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,70 +333,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,214 +710,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" customHeight="1">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="29" t="s">
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" customHeight="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="29" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="21" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
+    <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="26"/>
-      <c r="C8" s="28" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -949,29 +942,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="2" customWidth="1"/>
-    <col min="9" max="14" width="8.7109375" style="2"/>
-    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="6.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="11.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9" max="14" width="8.7265625" style="2"/>
+    <col min="15" max="15" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
@@ -985,7 +978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +1018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1042,72 +1035,72 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
-      <c r="D6" s="14" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
       <c r="O6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1116,7 +1109,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
@@ -1133,7 +1126,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
@@ -1150,31 +1143,31 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
-      <c r="E15" s="14" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="E15" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:15">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1237,46 +1230,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="11" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1285,7 +1278,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1294,7 +1287,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1306,23 +1299,31 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="I26:I27"/>
@@ -1339,14 +1340,6 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
